--- a/Prototyping/Protocol Team ResQ.xlsx
+++ b/Prototyping/Protocol Team ResQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HSHL\SOFTWARE FOR ELE\GitHub\ResQ\Prototyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB741C78-9B29-4F60-92A2-059BB94A1B6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372934A8-E656-4591-8FB6-300BF58DE931}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Week</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>3) Use Case Diagram</t>
+  </si>
+  <si>
+    <t>12/04-18/04</t>
+  </si>
+  <si>
+    <t>1) Correct the Use Case Diagram</t>
+  </si>
+  <si>
+    <t>19/04 -25/04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) Block Diagram </t>
   </si>
 </sst>
 </file>
@@ -150,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +195,12 @@
         <fgColor theme="6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -201,7 +219,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -220,10 +238,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
@@ -511,14 +538,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="35.6640625" customWidth="1"/>
     <col min="6" max="6" width="30.5546875" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" customWidth="1"/>
@@ -563,7 +591,7 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -580,7 +608,7 @@
       <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
@@ -603,7 +631,9 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C5" s="8"/>
+      <c r="C5" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
@@ -620,8 +650,8 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C6" s="8"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -641,8 +671,8 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C7" s="8"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -662,8 +692,8 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C8" s="8"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -683,8 +713,8 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C9" s="8"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -702,8 +732,8 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C10" s="8"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -721,8 +751,8 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C11" s="8"/>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -754,16 +784,16 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -773,16 +803,26 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="K13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -792,9 +832,13 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -811,8 +855,10 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -830,8 +876,8 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -849,8 +895,8 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -868,8 +914,8 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -887,8 +933,8 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -906,17 +952,32 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C20" s="7"/>
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -928,8 +989,8 @@
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -947,8 +1008,8 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>

--- a/Prototyping/Protocol Team ResQ.xlsx
+++ b/Prototyping/Protocol Team ResQ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HSHL\SOFTWARE FOR ELE\GitHub\ResQ\Prototyping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swift\Documents\GitHub\Prototyping\Prototyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372934A8-E656-4591-8FB6-300BF58DE931}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417A01CE-A8EA-4649-8C50-406B6E38DA70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Week</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t xml:space="preserve">2) Block Diagram </t>
+  </si>
+  <si>
+    <t>1) Discussion on main idea project</t>
+  </si>
+  <si>
+    <t>2) Provides overview Use Case</t>
+  </si>
+  <si>
+    <t>1) Discussion on Scenarios</t>
+  </si>
+  <si>
+    <t>2) Creating Sequence Diagram</t>
   </si>
 </sst>
 </file>
@@ -539,7 +551,7 @@
   <dimension ref="C2:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +562,7 @@
     <col min="5" max="5" width="35.6640625" customWidth="1"/>
     <col min="6" max="6" width="30.5546875" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" customWidth="1"/>
     <col min="9" max="9" width="14.44140625" customWidth="1"/>
     <col min="10" max="10" width="22.5546875" customWidth="1"/>
     <col min="11" max="11" width="18.5546875" customWidth="1"/>
@@ -591,6 +603,9 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
       <c r="K3" s="8" t="s">
         <v>11</v>
       </c>
@@ -616,7 +631,9 @@
         <v>9</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -814,7 +831,9 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="8" t="s">
@@ -841,7 +860,9 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>

--- a/Prototyping/Protocol Team ResQ.xlsx
+++ b/Prototyping/Protocol Team ResQ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swift\Documents\GitHub\Prototyping\Prototyping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prototyping\Prototyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417A01CE-A8EA-4649-8C50-406B6E38DA70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343079CB-D37C-4A82-B424-03FE3913BA7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Week</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>2) Creating Sequence Diagram</t>
+  </si>
+  <si>
+    <t>1) Block Diagram</t>
+  </si>
+  <si>
+    <t>2) Discussion on Scenarios</t>
+  </si>
+  <si>
+    <t>2) Responsible for Contraint Diagram</t>
   </si>
 </sst>
 </file>
@@ -550,27 +559,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
-    <col min="10" max="10" width="22.5546875" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" customWidth="1"/>
-    <col min="12" max="12" width="70.88671875" customWidth="1"/>
-    <col min="13" max="19" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="70.85546875" customWidth="1"/>
+    <col min="13" max="19" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
@@ -590,7 +599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -604,6 +613,9 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
         <v>26</v>
       </c>
       <c r="K3" s="8" t="s">
@@ -619,7 +631,7 @@
       <c r="Q3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4" s="7">
         <v>1</v>
       </c>
@@ -647,7 +659,7 @@
       <c r="Q4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" s="10" t="s">
         <v>22</v>
       </c>
@@ -666,7 +678,7 @@
       <c r="R5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6" s="7"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
@@ -687,7 +699,7 @@
       <c r="R6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
@@ -708,7 +720,7 @@
       <c r="R7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
@@ -729,7 +741,7 @@
       <c r="R8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
@@ -748,7 +760,7 @@
       <c r="R9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
@@ -767,7 +779,7 @@
       <c r="R10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
       <c r="D11" s="2" t="s">
         <v>3</v>
@@ -800,7 +812,7 @@
       <c r="R11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
@@ -819,7 +831,7 @@
       <c r="R12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
         <v>0</v>
       </c>
@@ -829,13 +841,17 @@
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="K13" s="8" t="s">
         <v>11</v>
       </c>
@@ -850,7 +866,7 @@
       <c r="R13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" s="7">
         <v>2</v>
       </c>
@@ -858,13 +874,17 @@
       <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -875,7 +895,7 @@
       <c r="R14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
@@ -896,7 +916,7 @@
       <c r="R15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" s="7"/>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
@@ -915,7 +935,7 @@
       <c r="R16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
@@ -934,7 +954,7 @@
       <c r="R17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="7"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1"/>
@@ -953,7 +973,7 @@
       <c r="R18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="7"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
@@ -972,11 +992,11 @@
       <c r="R19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="7"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="7"/>
       <c r="D21" s="2" t="s">
         <v>3</v>
@@ -1009,7 +1029,7 @@
       <c r="R21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="1"/>
@@ -1028,7 +1048,7 @@
       <c r="R22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="1"/>

--- a/Prototyping/Protocol Team ResQ.xlsx
+++ b/Prototyping/Protocol Team ResQ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prototyping\Prototyping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Documents\GitHub\Prototyping\Prototyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343079CB-D37C-4A82-B424-03FE3913BA7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9413AB-87C5-4985-86DC-9A0DB1E404A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>Week</t>
   </si>
@@ -133,6 +133,24 @@
   </si>
   <si>
     <t>2) Responsible for Contraint Diagram</t>
+  </si>
+  <si>
+    <t>1)Discussion on scenarios</t>
+  </si>
+  <si>
+    <t>2)First sketch of idea</t>
+  </si>
+  <si>
+    <t>2)Creating Activity Diagram</t>
+  </si>
+  <si>
+    <t>1)Discussion on main idea project</t>
+  </si>
+  <si>
+    <t>1)Discussion on Scenarios</t>
+  </si>
+  <si>
+    <t>2)Creating State Machine Diagram</t>
   </si>
 </sst>
 </file>
@@ -274,12 +292,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
-    <cellStyle name="Accent3" xfId="5" builtinId="37"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="40 % - Akzent1" xfId="4" builtinId="31"/>
+    <cellStyle name="Akzent3" xfId="5" builtinId="37"/>
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -560,19 +578,19 @@
   <dimension ref="C2:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="9" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="9" customWidth="1"/>
     <col min="5" max="5" width="35.7109375" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" customWidth="1"/>
     <col min="8" max="8" width="33.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" customWidth="1"/>
     <col min="10" max="10" width="33.42578125" customWidth="1"/>
     <col min="11" max="11" width="18.5703125" customWidth="1"/>
     <col min="12" max="12" width="70.85546875" customWidth="1"/>
@@ -612,8 +630,14 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" t="s">
         <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
@@ -642,12 +666,13 @@
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
         <v>16</v>
@@ -844,11 +869,15 @@
       <c r="F13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="J13" s="1" t="s">
         <v>28</v>
       </c>
@@ -877,11 +906,15 @@
       <c r="F14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="H14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J14" s="1" t="s">
         <v>32</v>
       </c>

--- a/Prototyping/Protocol Team ResQ.xlsx
+++ b/Prototyping/Protocol Team ResQ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Documents\GitHub\Prototyping\Prototyping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prototyping\Prototyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9413AB-87C5-4985-86DC-9A0DB1E404A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCD08FE-46C4-44A3-9D77-7E162B6BC009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Week</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>2)Creating State Machine Diagram</t>
+  </si>
+  <si>
+    <t>Edit Github repository</t>
+  </si>
+  <si>
+    <t>Activity diagram ( fork and joint)</t>
+  </si>
+  <si>
+    <t>Block Diagram (subsystem instead of bdd)</t>
+  </si>
+  <si>
+    <t>Insert prototype</t>
   </si>
 </sst>
 </file>
@@ -292,12 +304,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="40 % - Akzent1" xfId="4" builtinId="31"/>
-    <cellStyle name="Akzent3" xfId="5" builtinId="37"/>
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="Accent3" xfId="5" builtinId="37"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -577,11 +589,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="9" customWidth="1"/>
@@ -593,7 +605,7 @@
     <col min="9" max="9" width="31.5703125" customWidth="1"/>
     <col min="10" max="10" width="33.42578125" customWidth="1"/>
     <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="70.85546875" customWidth="1"/>
+    <col min="12" max="12" width="78" customWidth="1"/>
     <col min="13" max="19" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -919,7 +931,9 @@
         <v>32</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -940,7 +954,9 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -959,7 +975,9 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -978,7 +996,9 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>

--- a/Prototyping/Protocol Team ResQ.xlsx
+++ b/Prototyping/Protocol Team ResQ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prototyping\Prototyping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HSHL\SOFTWARE FOR ELE\GitHub\ResQ\Prototyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCD08FE-46C4-44A3-9D77-7E162B6BC009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D955D662-0665-4343-8F85-691F37C6001E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>Week</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>Insert prototype</t>
+  </si>
+  <si>
+    <t>26/04 -02/05</t>
+  </si>
+  <si>
+    <t>1) Restructure Github repository</t>
+  </si>
+  <si>
+    <t>2) First Sketch drawing</t>
+  </si>
+  <si>
+    <t>Adding on land scenario</t>
   </si>
 </sst>
 </file>
@@ -587,29 +599,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:T23"/>
+  <dimension ref="C2:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" customWidth="1"/>
-    <col min="8" max="8" width="33.140625" customWidth="1"/>
-    <col min="9" max="9" width="31.5703125" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="7" max="7" width="35.88671875" customWidth="1"/>
+    <col min="8" max="8" width="33.109375" customWidth="1"/>
+    <col min="9" max="9" width="31.5546875" customWidth="1"/>
+    <col min="10" max="10" width="33.44140625" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" customWidth="1"/>
     <col min="12" max="12" width="78" customWidth="1"/>
-    <col min="13" max="19" width="11.42578125" customWidth="1"/>
+    <col min="13" max="19" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
@@ -629,7 +641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -667,7 +679,7 @@
       <c r="Q3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C4" s="7">
         <v>1</v>
       </c>
@@ -696,7 +708,7 @@
       <c r="Q4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
         <v>22</v>
       </c>
@@ -715,7 +727,7 @@
       <c r="R5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C6" s="7"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
@@ -736,7 +748,7 @@
       <c r="R6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
@@ -757,7 +769,7 @@
       <c r="R7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
@@ -778,7 +790,7 @@
       <c r="R8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
@@ -797,7 +809,7 @@
       <c r="R9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
@@ -816,7 +828,7 @@
       <c r="R10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C11" s="7"/>
       <c r="D11" s="2" t="s">
         <v>3</v>
@@ -849,7 +861,7 @@
       <c r="R11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
@@ -868,7 +880,7 @@
       <c r="R12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C13" s="6" t="s">
         <v>0</v>
       </c>
@@ -907,7 +919,7 @@
       <c r="R13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C14" s="7">
         <v>2</v>
       </c>
@@ -942,7 +954,7 @@
       <c r="R14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
@@ -965,7 +977,7 @@
       <c r="R15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
@@ -986,7 +998,7 @@
       <c r="R16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
@@ -1007,7 +1019,7 @@
       <c r="R17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1"/>
@@ -1017,7 +1029,9 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -1026,7 +1040,7 @@
       <c r="R18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C19" s="7"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
@@ -1045,11 +1059,11 @@
       <c r="R19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
       <c r="D21" s="2" t="s">
         <v>3</v>
@@ -1082,17 +1096,17 @@
       <c r="R21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -1101,17 +1115,27 @@
       <c r="R22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="K23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -1120,6 +1144,113 @@
       <c r="R23" s="1"/>
       <c r="T23" s="1"/>
     </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C26" s="7"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C27" s="7"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C28" s="7"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C29" s="7"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C31" s="7"/>
+      <c r="D31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Prototyping/Protocol Team ResQ.xlsx
+++ b/Prototyping/Protocol Team ResQ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HSHL\SOFTWARE FOR ELE\GitHub\ResQ\Prototyping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swift\Documents\GitHub\Prototyping\Prototyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D955D662-0665-4343-8F85-691F37C6001E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEC0DAE-0AB6-4D49-9693-F233A4B86610}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>Week</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>Adding on land scenario</t>
+  </si>
+  <si>
+    <t>1) Modify Sequence Diagram (water scenario)</t>
+  </si>
+  <si>
+    <t>2) Creating Sequence Diagram (Land Scenario)</t>
   </si>
 </sst>
 </file>
@@ -601,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,7 +619,7 @@
     <col min="5" max="5" width="35.6640625" customWidth="1"/>
     <col min="6" max="6" width="30.5546875" customWidth="1"/>
     <col min="7" max="7" width="35.88671875" customWidth="1"/>
-    <col min="8" max="8" width="33.109375" customWidth="1"/>
+    <col min="8" max="8" width="38.44140625" customWidth="1"/>
     <col min="9" max="9" width="31.5546875" customWidth="1"/>
     <col min="10" max="10" width="33.44140625" customWidth="1"/>
     <col min="11" max="11" width="18.5546875" customWidth="1"/>
@@ -1127,7 +1133,9 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="8" t="s">
@@ -1154,7 +1162,9 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>

--- a/Prototyping/Protocol Team ResQ.xlsx
+++ b/Prototyping/Protocol Team ResQ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swift\Documents\GitHub\Prototyping\Prototyping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prototyping\Prototyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEC0DAE-0AB6-4D49-9693-F233A4B86610}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E596D93-5FC0-46A6-B4BF-812441D4756A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -607,27 +607,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1"/>
-    <col min="7" max="7" width="35.88671875" customWidth="1"/>
-    <col min="8" max="8" width="38.44140625" customWidth="1"/>
-    <col min="9" max="9" width="31.5546875" customWidth="1"/>
-    <col min="10" max="10" width="33.44140625" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" customWidth="1"/>
+    <col min="8" max="8" width="41.140625" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
     <col min="12" max="12" width="78" customWidth="1"/>
-    <col min="13" max="19" width="11.44140625" customWidth="1"/>
+    <col min="13" max="19" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
@@ -647,7 +647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -685,7 +685,7 @@
       <c r="Q3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4" s="7">
         <v>1</v>
       </c>
@@ -714,7 +714,7 @@
       <c r="Q4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" s="10" t="s">
         <v>22</v>
       </c>
@@ -733,7 +733,7 @@
       <c r="R5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6" s="7"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
@@ -754,7 +754,7 @@
       <c r="R6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
@@ -775,7 +775,7 @@
       <c r="R7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
@@ -796,7 +796,7 @@
       <c r="R8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
@@ -815,7 +815,7 @@
       <c r="R9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
@@ -834,7 +834,7 @@
       <c r="R10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
       <c r="D11" s="2" t="s">
         <v>3</v>
@@ -867,7 +867,7 @@
       <c r="R11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
@@ -886,7 +886,7 @@
       <c r="R12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
         <v>0</v>
       </c>
@@ -925,7 +925,7 @@
       <c r="R13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" s="7">
         <v>2</v>
       </c>
@@ -960,7 +960,7 @@
       <c r="R14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
@@ -983,7 +983,7 @@
       <c r="R15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" s="7"/>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
@@ -1004,7 +1004,7 @@
       <c r="R16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
@@ -1025,7 +1025,7 @@
       <c r="R17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="7"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1"/>
@@ -1046,7 +1046,7 @@
       <c r="R18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="7"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
@@ -1065,11 +1065,11 @@
       <c r="R19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="7"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="7"/>
       <c r="D21" s="2" t="s">
         <v>3</v>
@@ -1102,7 +1102,7 @@
       <c r="R21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
@@ -1121,7 +1121,7 @@
       <c r="R22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="R23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" s="7">
         <v>3</v>
       </c>
@@ -1170,7 +1170,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" s="7" t="s">
         <v>43</v>
       </c>
@@ -1184,7 +1184,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" s="7"/>
       <c r="D26" s="2"/>
       <c r="E26" s="1"/>
@@ -1196,7 +1196,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
@@ -1208,7 +1208,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" s="7"/>
       <c r="D28" s="2"/>
       <c r="E28" s="1"/>
@@ -1220,7 +1220,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
       <c r="E29" s="1"/>
@@ -1232,10 +1232,10 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31" s="7"/>
       <c r="D31" s="2" t="s">
         <v>3</v>

--- a/Prototyping/Protocol Team ResQ.xlsx
+++ b/Prototyping/Protocol Team ResQ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prototyping\Prototyping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Documents\GitHub\Prototyping\Prototyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E596D93-5FC0-46A6-B4BF-812441D4756A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C04B346-4F3F-4FE1-9B97-E0EACA6E6C7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>Week</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>2) Creating Sequence Diagram (Land Scenario)</t>
+  </si>
+  <si>
+    <t>1) Creating Activity Diagram on Land</t>
+  </si>
+  <si>
+    <t>2)Discussion of Robot's Prototype</t>
   </si>
 </sst>
 </file>
@@ -322,12 +328,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
-    <cellStyle name="Accent3" xfId="5" builtinId="37"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="40 % - Akzent1" xfId="4" builtinId="31"/>
+    <cellStyle name="Akzent3" xfId="5" builtinId="37"/>
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -607,11 +613,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="9" customWidth="1"/>
@@ -1132,7 +1138,9 @@
         <v>44</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="H23" s="1" t="s">
         <v>47</v>
       </c>
@@ -1161,7 +1169,9 @@
         <v>45</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="H24" s="1" t="s">
         <v>48</v>
       </c>

--- a/Prototyping/Protocol Team ResQ.xlsx
+++ b/Prototyping/Protocol Team ResQ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Documents\GitHub\Prototyping\Prototyping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HSHL\SOFTWARE FOR ELE\GitHub\ResQ\Prototyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C04B346-4F3F-4FE1-9B97-E0EACA6E6C7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7476EF7C-A241-4B97-BC10-9CCA8CF48815}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>Week</t>
   </si>
@@ -187,6 +187,18 @@
   </si>
   <si>
     <t>2)Discussion of Robot's Prototype</t>
+  </si>
+  <si>
+    <t>Make more details</t>
+  </si>
+  <si>
+    <t>Ibd shows the flow</t>
+  </si>
+  <si>
+    <t>Correct constrain diagram</t>
+  </si>
+  <si>
+    <t>Use Case correction for the extend</t>
   </si>
 </sst>
 </file>
@@ -328,12 +340,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="40 % - Akzent1" xfId="4" builtinId="31"/>
-    <cellStyle name="Akzent3" xfId="5" builtinId="37"/>
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="Accent3" xfId="5" builtinId="37"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -613,27 +625,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="L10" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" customWidth="1"/>
-    <col min="8" max="8" width="41.140625" customWidth="1"/>
-    <col min="9" max="9" width="31.5703125" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="7" max="7" width="35.88671875" customWidth="1"/>
+    <col min="8" max="8" width="41.109375" customWidth="1"/>
+    <col min="9" max="9" width="31.5546875" customWidth="1"/>
+    <col min="10" max="10" width="33.44140625" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" customWidth="1"/>
     <col min="12" max="12" width="78" customWidth="1"/>
-    <col min="13" max="19" width="11.42578125" customWidth="1"/>
+    <col min="13" max="19" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
@@ -653,7 +665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -691,7 +703,7 @@
       <c r="Q3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C4" s="7">
         <v>1</v>
       </c>
@@ -720,7 +732,7 @@
       <c r="Q4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
         <v>22</v>
       </c>
@@ -739,7 +751,7 @@
       <c r="R5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C6" s="7"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
@@ -760,7 +772,7 @@
       <c r="R6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
@@ -781,7 +793,7 @@
       <c r="R7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
@@ -802,7 +814,7 @@
       <c r="R8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
@@ -821,7 +833,7 @@
       <c r="R9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
@@ -840,7 +852,7 @@
       <c r="R10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C11" s="7"/>
       <c r="D11" s="2" t="s">
         <v>3</v>
@@ -873,7 +885,7 @@
       <c r="R11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
@@ -892,7 +904,7 @@
       <c r="R12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C13" s="6" t="s">
         <v>0</v>
       </c>
@@ -931,7 +943,7 @@
       <c r="R13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C14" s="7">
         <v>2</v>
       </c>
@@ -966,7 +978,7 @@
       <c r="R14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
@@ -989,7 +1001,7 @@
       <c r="R15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
@@ -1010,7 +1022,7 @@
       <c r="R16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
@@ -1031,7 +1043,7 @@
       <c r="R17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1"/>
@@ -1052,7 +1064,7 @@
       <c r="R18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C19" s="7"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
@@ -1071,11 +1083,11 @@
       <c r="R19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
       <c r="D21" s="2" t="s">
         <v>3</v>
@@ -1108,7 +1120,7 @@
       <c r="R21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
@@ -1127,7 +1139,7 @@
       <c r="R22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C23" s="6" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1172,7 @@
       <c r="R23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C24" s="7">
         <v>3</v>
       </c>
@@ -1178,9 +1190,11 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="L24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C25" s="7" t="s">
         <v>43</v>
       </c>
@@ -1192,9 +1206,11 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="L25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C26" s="7"/>
       <c r="D26" s="2"/>
       <c r="E26" s="1"/>
@@ -1204,9 +1220,11 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="L26" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
@@ -1216,9 +1234,11 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="L27" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C28" s="7"/>
       <c r="D28" s="2"/>
       <c r="E28" s="1"/>
@@ -1230,7 +1250,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
       <c r="E29" s="1"/>
@@ -1242,10 +1262,10 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C31" s="7"/>
       <c r="D31" s="2" t="s">
         <v>3</v>

--- a/Prototyping/Protocol Team ResQ.xlsx
+++ b/Prototyping/Protocol Team ResQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HSHL\SOFTWARE FOR ELE\GitHub\ResQ\Prototyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7476EF7C-A241-4B97-BC10-9CCA8CF48815}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14B2F25-72F8-4F49-AE45-F9A780AF3C67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>Week</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Use Case correction for the extend</t>
+  </si>
+  <si>
+    <t>System Architecture</t>
   </si>
 </sst>
 </file>
@@ -625,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L10" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,7 +1251,9 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C29" s="7"/>

--- a/Prototyping/Protocol Team ResQ.xlsx
+++ b/Prototyping/Protocol Team ResQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HSHL\SOFTWARE FOR ELE\GitHub\ResQ\Prototyping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Documents\GitHub\Prototyping\Prototyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14B2F25-72F8-4F49-AE45-F9A780AF3C67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D774EAEC-4D72-4108-8B3B-F1366378AF5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>Week</t>
   </si>
@@ -202,6 +202,21 @@
   </si>
   <si>
     <t>System Architecture</t>
+  </si>
+  <si>
+    <t>Put condition on activity diagram</t>
+  </si>
+  <si>
+    <t>Improve robot design</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>1) Correction on Context Library</t>
+  </si>
+  <si>
+    <t>Edit the sequence diagram</t>
   </si>
 </sst>
 </file>
@@ -343,12 +358,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
-    <cellStyle name="Accent3" xfId="5" builtinId="37"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="40 % - Akzent1" xfId="4" builtinId="31"/>
+    <cellStyle name="Akzent3" xfId="5" builtinId="37"/>
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -628,27 +643,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1"/>
-    <col min="7" max="7" width="35.88671875" customWidth="1"/>
-    <col min="8" max="8" width="41.109375" customWidth="1"/>
-    <col min="9" max="9" width="31.5546875" customWidth="1"/>
-    <col min="10" max="10" width="33.44140625" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" customWidth="1"/>
+    <col min="8" max="8" width="41.140625" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
     <col min="12" max="12" width="78" customWidth="1"/>
-    <col min="13" max="19" width="11.44140625" customWidth="1"/>
+    <col min="13" max="19" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
@@ -668,7 +683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -706,7 +721,7 @@
       <c r="Q3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4" s="7">
         <v>1</v>
       </c>
@@ -735,7 +750,7 @@
       <c r="Q4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" s="10" t="s">
         <v>22</v>
       </c>
@@ -754,7 +769,7 @@
       <c r="R5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6" s="7"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
@@ -775,7 +790,7 @@
       <c r="R6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
@@ -796,7 +811,7 @@
       <c r="R7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
@@ -817,7 +832,7 @@
       <c r="R8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
@@ -836,7 +851,7 @@
       <c r="R9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
@@ -855,7 +870,7 @@
       <c r="R10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
       <c r="D11" s="2" t="s">
         <v>3</v>
@@ -888,7 +903,7 @@
       <c r="R11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
@@ -907,7 +922,7 @@
       <c r="R12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
         <v>0</v>
       </c>
@@ -946,7 +961,7 @@
       <c r="R13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" s="7">
         <v>2</v>
       </c>
@@ -981,7 +996,7 @@
       <c r="R14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
@@ -1004,7 +1019,7 @@
       <c r="R15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" s="7"/>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
@@ -1025,7 +1040,7 @@
       <c r="R16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
@@ -1046,7 +1061,7 @@
       <c r="R17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="7"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1"/>
@@ -1067,7 +1082,7 @@
       <c r="R18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="7"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
@@ -1086,11 +1101,11 @@
       <c r="R19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="7"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="7"/>
       <c r="D21" s="2" t="s">
         <v>3</v>
@@ -1123,7 +1138,7 @@
       <c r="R21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
@@ -1142,7 +1157,7 @@
       <c r="R22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
         <v>0</v>
       </c>
@@ -1159,8 +1174,12 @@
       <c r="H23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="K23" s="8" t="s">
         <v>11</v>
       </c>
@@ -1175,7 +1194,7 @@
       <c r="R23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" s="7">
         <v>3</v>
       </c>
@@ -1197,7 +1216,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" s="7" t="s">
         <v>43</v>
       </c>
@@ -1213,7 +1232,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" s="7"/>
       <c r="D26" s="2"/>
       <c r="E26" s="1"/>
@@ -1227,7 +1246,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
@@ -1241,7 +1260,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" s="7"/>
       <c r="D28" s="2"/>
       <c r="E28" s="1"/>
@@ -1255,7 +1274,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
       <c r="E29" s="1"/>
@@ -1265,12 +1284,17 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="L29" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="L30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31" s="7"/>
       <c r="D31" s="2" t="s">
         <v>3</v>
@@ -1294,7 +1318,9 @@
         <v>10</v>
       </c>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="L31" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
